--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +549,10 @@
         <v>1.10645</v>
       </c>
       <c r="I2">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J2">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.789624</v>
+        <v>22.3363875</v>
       </c>
       <c r="N2">
-        <v>71.57924800000001</v>
+        <v>44.672775</v>
       </c>
       <c r="O2">
-        <v>0.258139457682779</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P2">
-        <v>0.1993778771086309</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q2">
-        <v>13.19980982493333</v>
+        <v>8.238031983125</v>
       </c>
       <c r="R2">
-        <v>79.19885894960001</v>
+        <v>49.42819189875</v>
       </c>
       <c r="S2">
-        <v>0.1240552970188517</v>
+        <v>0.1456670018003823</v>
       </c>
       <c r="T2">
-        <v>0.115879557668477</v>
+        <v>0.1265829593974508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +611,10 @@
         <v>1.10645</v>
       </c>
       <c r="I3">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J3">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +629,10 @@
         <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4335790718803266</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P3">
-        <v>0.5023219368682956</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q3">
         <v>22.17081163905</v>
@@ -638,10 +641,10 @@
         <v>199.53730475145</v>
       </c>
       <c r="S3">
-        <v>0.2083671400959183</v>
+        <v>0.3920299976446972</v>
       </c>
       <c r="T3">
-        <v>0.291952370521809</v>
+        <v>0.5110043797954162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,40 +673,40 @@
         <v>1.10645</v>
       </c>
       <c r="I4">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J4">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1309775</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N4">
-        <v>42.261955</v>
+        <v>0.373519</v>
       </c>
       <c r="O4">
-        <v>0.1524111868891667</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P4">
-        <v>0.1177170633360173</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q4">
-        <v>7.793456684958333</v>
+        <v>0.04592001083888888</v>
       </c>
       <c r="R4">
-        <v>46.76074010975</v>
+        <v>0.4132800975499999</v>
       </c>
       <c r="S4">
-        <v>0.07324496312286413</v>
+        <v>0.0008119694503789241</v>
       </c>
       <c r="T4">
-        <v>0.06841782763078313</v>
+        <v>0.001058388255736887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,40 +735,40 @@
         <v>1.10645</v>
       </c>
       <c r="I5">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J5">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.40334366666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N5">
-        <v>64.210031</v>
+        <v>25.989309</v>
       </c>
       <c r="O5">
-        <v>0.1543756795743782</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P5">
-        <v>0.178851553034748</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q5">
-        <v>7.893909866661111</v>
+        <v>4.792645157175</v>
       </c>
       <c r="R5">
-        <v>71.04518879995</v>
+        <v>28.75587094305</v>
       </c>
       <c r="S5">
-        <v>0.07418904864060301</v>
+        <v>0.08474478518278061</v>
       </c>
       <c r="T5">
-        <v>0.1039495412156215</v>
+        <v>0.07364224957851405</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,45 +797,45 @@
         <v>1.10645</v>
       </c>
       <c r="I6">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J6">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2072186666666667</v>
+        <v>0.121553</v>
       </c>
       <c r="N6">
-        <v>0.621656</v>
+        <v>0.364659</v>
       </c>
       <c r="O6">
-        <v>0.001494603973349423</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P6">
-        <v>0.001731569652308208</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q6">
-        <v>0.0764256979111111</v>
+        <v>0.04483077228333333</v>
       </c>
       <c r="R6">
-        <v>0.6878312811999999</v>
+        <v>0.40347695055</v>
       </c>
       <c r="S6">
-        <v>0.0007182688826567096</v>
+        <v>0.0007927092538953255</v>
       </c>
       <c r="T6">
-        <v>0.001006398143522753</v>
+        <v>0.001033282919874913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -841,55 +844,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3986325000000001</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H7">
-        <v>0.7972650000000001</v>
+        <v>1.10645</v>
       </c>
       <c r="I7">
-        <v>0.519425282239106</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J7">
-        <v>0.4187943048197866</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.789624</v>
+        <v>0.047492</v>
       </c>
       <c r="N7">
-        <v>71.57924800000001</v>
+        <v>0.142476</v>
       </c>
       <c r="O7">
-        <v>0.258139457682779</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P7">
-        <v>0.1993778771086309</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q7">
-        <v>14.26690728918</v>
+        <v>0.01751584113333333</v>
       </c>
       <c r="R7">
-        <v>57.06762915672002</v>
+        <v>0.1576425702</v>
       </c>
       <c r="S7">
-        <v>0.1340841606639272</v>
+        <v>0.0003097196110832048</v>
       </c>
       <c r="T7">
-        <v>0.08349831944015393</v>
+        <v>0.0004037142022878856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.2218985</v>
+      </c>
+      <c r="H8">
+        <v>0.443797</v>
+      </c>
+      <c r="I8">
+        <v>0.3756438170567823</v>
+      </c>
+      <c r="J8">
+        <v>0.2862750258507193</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.3986325000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.7972650000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.519425282239106</v>
-      </c>
-      <c r="J8">
-        <v>0.4187943048197866</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.113367</v>
+        <v>22.3363875</v>
       </c>
       <c r="N8">
-        <v>180.340101</v>
+        <v>44.672775</v>
       </c>
       <c r="O8">
-        <v>0.4335790718803266</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P8">
-        <v>0.5023219368682956</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q8">
-        <v>23.96314177062751</v>
+        <v>4.95641088166875</v>
       </c>
       <c r="R8">
-        <v>143.778850623765</v>
+        <v>19.825643526675</v>
       </c>
       <c r="S8">
-        <v>0.2252119317844083</v>
+        <v>0.08764053287270679</v>
       </c>
       <c r="T8">
-        <v>0.2103695663464866</v>
+        <v>0.05077241414588141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +968,55 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.3986325000000001</v>
+        <v>0.2218985</v>
       </c>
       <c r="H9">
-        <v>0.7972650000000001</v>
+        <v>0.443797</v>
       </c>
       <c r="I9">
-        <v>0.519425282239106</v>
+        <v>0.3756438170567823</v>
       </c>
       <c r="J9">
-        <v>0.4187943048197866</v>
+        <v>0.2862750258507193</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.1309775</v>
+        <v>60.113367</v>
       </c>
       <c r="N9">
-        <v>42.261955</v>
+        <v>180.340101</v>
       </c>
       <c r="O9">
-        <v>0.1524111868891667</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P9">
-        <v>0.1177170633360173</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q9">
-        <v>8.423494388268752</v>
+        <v>13.3390659672495</v>
       </c>
       <c r="R9">
-        <v>33.69397755307501</v>
+        <v>80.03439580349701</v>
       </c>
       <c r="S9">
-        <v>0.07916622376630253</v>
+        <v>0.2358647975932808</v>
       </c>
       <c r="T9">
-        <v>0.04929923570523415</v>
+        <v>0.2049638128610117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.3986325000000001</v>
+        <v>0.2218985</v>
       </c>
       <c r="H10">
-        <v>0.7972650000000001</v>
+        <v>0.443797</v>
       </c>
       <c r="I10">
-        <v>0.519425282239106</v>
+        <v>0.3756438170567823</v>
       </c>
       <c r="J10">
-        <v>0.4187943048197866</v>
+        <v>0.2862750258507193</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.40334366666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N10">
-        <v>64.210031</v>
+        <v>0.373519</v>
       </c>
       <c r="O10">
-        <v>0.1543756795743782</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P10">
-        <v>0.178851553034748</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q10">
-        <v>8.532068394202502</v>
+        <v>0.02762776860716666</v>
       </c>
       <c r="R10">
-        <v>51.19241036521501</v>
+        <v>0.165766611643</v>
       </c>
       <c r="S10">
-        <v>0.08018663093377519</v>
+        <v>0.0004885213152467108</v>
       </c>
       <c r="T10">
-        <v>0.07490201181912648</v>
+        <v>0.0004245194385026557</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,55 +1092,179 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.2218985</v>
+      </c>
+      <c r="H11">
+        <v>0.443797</v>
+      </c>
+      <c r="I11">
+        <v>0.3756438170567823</v>
+      </c>
+      <c r="J11">
+        <v>0.2862750258507193</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.9946545</v>
+      </c>
+      <c r="N11">
+        <v>25.989309</v>
+      </c>
+      <c r="O11">
+        <v>0.1357314742736964</v>
+      </c>
+      <c r="P11">
+        <v>0.103180149561519</v>
+      </c>
+      <c r="Q11">
+        <v>2.88349434156825</v>
+      </c>
+      <c r="R11">
+        <v>11.533977366273</v>
+      </c>
+      <c r="S11">
+        <v>0.05098668909091576</v>
+      </c>
+      <c r="T11">
+        <v>0.02953789998300493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.2218985</v>
+      </c>
+      <c r="H12">
+        <v>0.443797</v>
+      </c>
+      <c r="I12">
+        <v>0.3756438170567823</v>
+      </c>
+      <c r="J12">
+        <v>0.2862750258507193</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.3986325000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.7972650000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.519425282239106</v>
-      </c>
-      <c r="J11">
-        <v>0.4187943048197866</v>
-      </c>
-      <c r="K11">
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.121553</v>
+      </c>
+      <c r="N12">
+        <v>0.364659</v>
+      </c>
+      <c r="O12">
+        <v>0.001269642674408205</v>
+      </c>
+      <c r="P12">
+        <v>0.00144773261031888</v>
+      </c>
+      <c r="Q12">
+        <v>0.0269724283705</v>
+      </c>
+      <c r="R12">
+        <v>0.161834570223</v>
+      </c>
+      <c r="S12">
+        <v>0.0004769334205128797</v>
+      </c>
+      <c r="T12">
+        <v>0.0004144496904439666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.2218985</v>
+      </c>
+      <c r="H13">
+        <v>0.443797</v>
+      </c>
+      <c r="I13">
+        <v>0.3756438170567823</v>
+      </c>
+      <c r="J13">
+        <v>0.2862750258507193</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.2072186666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.621656</v>
-      </c>
-      <c r="O11">
-        <v>0.001494603973349423</v>
-      </c>
-      <c r="P11">
-        <v>0.001731569652308208</v>
-      </c>
-      <c r="Q11">
-        <v>0.08260409514000001</v>
-      </c>
-      <c r="R11">
-        <v>0.4956245708400001</v>
-      </c>
-      <c r="S11">
-        <v>0.0007763350906927134</v>
-      </c>
-      <c r="T11">
-        <v>0.0007251715087854558</v>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.047492</v>
+      </c>
+      <c r="N13">
+        <v>0.142476</v>
+      </c>
+      <c r="O13">
+        <v>0.000496062375202541</v>
+      </c>
+      <c r="P13">
+        <v>0.0005656439341625811</v>
+      </c>
+      <c r="Q13">
+        <v>0.010538403562</v>
+      </c>
+      <c r="R13">
+        <v>0.063230421372</v>
+      </c>
+      <c r="S13">
+        <v>0.0001863427641193363</v>
+      </c>
+      <c r="T13">
+        <v>0.0001619297318746955</v>
       </c>
     </row>
   </sheetData>
